--- a/office/py_src.xlsx
+++ b/office/py_src.xlsx
@@ -402,7 +402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C15" activeCellId="0" pane="topLeft" sqref="C15"/>
@@ -2746,6 +2746,1974 @@
         <v>5</v>
       </c>
     </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>6</v>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>6</v>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>6</v>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5</v>
+      </c>
+      <c r="G89" t="n">
+        <v>6</v>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I90" t="n">
+        <v>8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5</v>
+      </c>
+      <c r="G91" t="n">
+        <v>6</v>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+      <c r="I91" t="n">
+        <v>8</v>
+      </c>
+      <c r="J91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>5</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6</v>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+      <c r="I92" t="n">
+        <v>8</v>
+      </c>
+      <c r="J92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6</v>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+      <c r="I93" t="n">
+        <v>8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6</v>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+      <c r="I94" t="n">
+        <v>8</v>
+      </c>
+      <c r="J94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="n">
+        <v>6</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+      <c r="I96" t="n">
+        <v>8</v>
+      </c>
+      <c r="J96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+      <c r="I97" t="n">
+        <v>8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5</v>
+      </c>
+      <c r="G98" t="n">
+        <v>6</v>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+      <c r="I98" t="n">
+        <v>8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5</v>
+      </c>
+      <c r="G99" t="n">
+        <v>6</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+      <c r="I99" t="n">
+        <v>8</v>
+      </c>
+      <c r="J99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6</v>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8</v>
+      </c>
+      <c r="J100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5</v>
+      </c>
+      <c r="G101" t="n">
+        <v>6</v>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>6</v>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+      <c r="I102" t="n">
+        <v>8</v>
+      </c>
+      <c r="J102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>5</v>
+      </c>
+      <c r="G103" t="n">
+        <v>6</v>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+      <c r="I103" t="n">
+        <v>8</v>
+      </c>
+      <c r="J103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5</v>
+      </c>
+      <c r="G104" t="n">
+        <v>6</v>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+      <c r="I104" t="n">
+        <v>8</v>
+      </c>
+      <c r="J104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5</v>
+      </c>
+      <c r="G105" t="n">
+        <v>6</v>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+      <c r="I105" t="n">
+        <v>8</v>
+      </c>
+      <c r="J105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>6</v>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+      <c r="I107" t="n">
+        <v>8</v>
+      </c>
+      <c r="J107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>6</v>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+      <c r="I108" t="n">
+        <v>8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>6</v>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+      <c r="I109" t="n">
+        <v>8</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5</v>
+      </c>
+      <c r="G110" t="n">
+        <v>6</v>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+      <c r="I110" t="n">
+        <v>8</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>6</v>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+      <c r="I111" t="n">
+        <v>8</v>
+      </c>
+      <c r="J111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" t="n">
+        <v>6</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+      <c r="I112" t="n">
+        <v>8</v>
+      </c>
+      <c r="J112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>6</v>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+      <c r="I113" t="n">
+        <v>8</v>
+      </c>
+      <c r="J113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>6</v>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+      <c r="I114" t="n">
+        <v>8</v>
+      </c>
+      <c r="J114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>6</v>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+      <c r="I115" t="n">
+        <v>8</v>
+      </c>
+      <c r="J115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5</v>
+      </c>
+      <c r="G116" t="n">
+        <v>6</v>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+      <c r="I116" t="n">
+        <v>8</v>
+      </c>
+      <c r="J116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5</v>
+      </c>
+      <c r="G118" t="n">
+        <v>6</v>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+      <c r="I118" t="n">
+        <v>8</v>
+      </c>
+      <c r="J118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>6</v>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+      <c r="I119" t="n">
+        <v>8</v>
+      </c>
+      <c r="J119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>6</v>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+      <c r="I120" t="n">
+        <v>8</v>
+      </c>
+      <c r="J120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5</v>
+      </c>
+      <c r="G121" t="n">
+        <v>6</v>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+      <c r="I121" t="n">
+        <v>8</v>
+      </c>
+      <c r="J121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>6</v>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+      <c r="I122" t="n">
+        <v>8</v>
+      </c>
+      <c r="J122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>6</v>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+      <c r="I123" t="n">
+        <v>8</v>
+      </c>
+      <c r="J123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>6</v>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+      <c r="I124" t="n">
+        <v>8</v>
+      </c>
+      <c r="J124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>6</v>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+      <c r="I125" t="n">
+        <v>8</v>
+      </c>
+      <c r="J125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="n">
+        <v>0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5</v>
+      </c>
+      <c r="G126" t="n">
+        <v>6</v>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+      <c r="I126" t="n">
+        <v>8</v>
+      </c>
+      <c r="J126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>6</v>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+      <c r="I127" t="n">
+        <v>8</v>
+      </c>
+      <c r="J127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5</v>
+      </c>
+      <c r="G129" t="n">
+        <v>6</v>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+      <c r="I129" t="n">
+        <v>8</v>
+      </c>
+      <c r="J129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="n">
+        <v>0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>6</v>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+      <c r="I130" t="n">
+        <v>8</v>
+      </c>
+      <c r="J130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>6</v>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+      <c r="I131" t="n">
+        <v>8</v>
+      </c>
+      <c r="J131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="n">
+        <v>0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5</v>
+      </c>
+      <c r="G132" t="n">
+        <v>6</v>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+      <c r="I132" t="n">
+        <v>8</v>
+      </c>
+      <c r="J132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5</v>
+      </c>
+      <c r="G133" t="n">
+        <v>6</v>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+      <c r="I133" t="n">
+        <v>8</v>
+      </c>
+      <c r="J133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>6</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+      <c r="I134" t="n">
+        <v>8</v>
+      </c>
+      <c r="J134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5</v>
+      </c>
+      <c r="G135" t="n">
+        <v>6</v>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+      <c r="I135" t="n">
+        <v>8</v>
+      </c>
+      <c r="J135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5</v>
+      </c>
+      <c r="G136" t="n">
+        <v>6</v>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+      <c r="I136" t="n">
+        <v>8</v>
+      </c>
+      <c r="J136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>6</v>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+      <c r="I137" t="n">
+        <v>8</v>
+      </c>
+      <c r="J137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5</v>
+      </c>
+      <c r="G138" t="n">
+        <v>6</v>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+      <c r="I138" t="n">
+        <v>8</v>
+      </c>
+      <c r="J138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="n">
+        <v>0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5</v>
+      </c>
+      <c r="G140" t="n">
+        <v>6</v>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+      <c r="I140" t="n">
+        <v>8</v>
+      </c>
+      <c r="J140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5</v>
+      </c>
+      <c r="G141" t="n">
+        <v>6</v>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+      <c r="I141" t="n">
+        <v>8</v>
+      </c>
+      <c r="J141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5</v>
+      </c>
+      <c r="G142" t="n">
+        <v>6</v>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+      <c r="I142" t="n">
+        <v>8</v>
+      </c>
+      <c r="J142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="n">
+        <v>0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>6</v>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+      <c r="I143" t="n">
+        <v>8</v>
+      </c>
+      <c r="J143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="n">
+        <v>0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5</v>
+      </c>
+      <c r="G144" t="n">
+        <v>6</v>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+      <c r="I144" t="n">
+        <v>8</v>
+      </c>
+      <c r="J144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="n">
+        <v>0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>6</v>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+      <c r="I145" t="n">
+        <v>8</v>
+      </c>
+      <c r="J145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5</v>
+      </c>
+      <c r="G146" t="n">
+        <v>6</v>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+      <c r="I146" t="n">
+        <v>8</v>
+      </c>
+      <c r="J146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>3</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5</v>
+      </c>
+      <c r="G147" t="n">
+        <v>6</v>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+      <c r="I147" t="n">
+        <v>8</v>
+      </c>
+      <c r="J147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>6</v>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+      <c r="I148" t="n">
+        <v>8</v>
+      </c>
+      <c r="J148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>6</v>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+      <c r="I149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.025" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.025"/>

--- a/office/py_src.xlsx
+++ b/office/py_src.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
-    <t>world</t>
+    <t>ss</t>
   </si>
   <si>
     <t>asdf</t>
@@ -36,35 +36,20 @@
   <si>
     <t>hello</t>
   </si>
+  <si>
+    <t>world</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="General" numFmtId="164"/>
-  </numFmts>
-  <fonts count="4">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
-      <family val="0"/>
       <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -85,31 +70,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -398,1695 +369,1695 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C15" activeCellId="0" pane="topLeft" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="23" min="1" style="1" width="8.67"/>
-    <col customWidth="1" max="256" min="24" style="1" width="11.85"/>
-    <col customWidth="1" max="1025" min="257" style="1" width="11.84"/>
+    <col customWidth="1" max="10" min="1" style="1" width="8.6640625"/>
+    <col customWidth="1" max="23" min="11" style="1" width="8.6640625"/>
+    <col customWidth="1" max="1025" min="24" style="1" width="11.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.65" r="1" s="2" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.65" r="2" s="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.65" r="3" s="2" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.65" r="4" s="2" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.65" r="5" s="2" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.65" r="6" s="2" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.65" r="7" s="2" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:10">
-      <c r="A8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:10">
-      <c r="A9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:10">
-      <c r="A10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:10">
-      <c r="A11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:10">
-      <c r="A12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:10">
-      <c r="A13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:10">
-      <c r="A14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:10">
-      <c r="A15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:10">
-      <c r="A16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:10">
-      <c r="A17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:10">
-      <c r="A19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="20" s="2" spans="1:10">
-      <c r="A20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="21" s="2" spans="1:10">
-      <c r="A21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:10">
-      <c r="A22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="23" s="2" spans="1:10">
-      <c r="A23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="24" s="2" spans="1:10">
-      <c r="A24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="25" s="2" spans="1:10">
-      <c r="A25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="26" s="2" spans="1:10">
-      <c r="A26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="27" s="2" spans="1:10">
-      <c r="A27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="28" s="2" spans="1:10">
-      <c r="A28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="29" s="2" spans="1:10">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="30" s="2" spans="1:10">
-      <c r="A30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="31" s="2" spans="1:10">
-      <c r="A31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="32" s="2" spans="1:10">
-      <c r="A32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J32" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="33" s="2" spans="1:10">
-      <c r="A33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="34" s="2" spans="1:10">
-      <c r="A34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J34" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="35" s="2" spans="1:10">
-      <c r="A35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="36" s="2" spans="1:10">
-      <c r="A36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="37" s="2" spans="1:10">
-      <c r="A37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="38" s="2" spans="1:10">
-      <c r="A38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="39" s="2" spans="1:10">
-      <c r="A39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F39" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="40" s="2" spans="1:10">
-      <c r="A40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="41" s="2" spans="1:10">
-      <c r="A41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="42" s="2" spans="1:10">
-      <c r="A42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I42" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J42" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="43" s="2" spans="1:10">
-      <c r="A43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I43" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="44" s="2" spans="1:10">
-      <c r="A44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I44" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J44" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="45" s="2" spans="1:10">
-      <c r="A45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="46" s="2" spans="1:10">
-      <c r="A46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="47" s="2" spans="1:10">
-      <c r="A47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="48" s="2" spans="1:10">
-      <c r="A48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I48" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J48" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="49" s="2" spans="1:10">
-      <c r="A49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="50" s="2" spans="1:10">
-      <c r="A50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I50" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="51" s="2" spans="1:10">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="52" s="2" spans="1:10">
-      <c r="A52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="53" s="2" spans="1:10">
-      <c r="A53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I53" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="54" s="2" spans="1:10">
-      <c r="A54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I54" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J54" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="55" s="2" spans="1:10">
-      <c r="A55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F55" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G55" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I55" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J55" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="56" s="2" spans="1:10">
-      <c r="A56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I56" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J56" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="57" s="2" spans="1:10">
-      <c r="A57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I57" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="58" s="2" spans="1:10">
-      <c r="A58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G58" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H58" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I58" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J58" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="59" s="2" spans="1:10">
-      <c r="A59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I59" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J59" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="60" s="2" spans="1:10">
-      <c r="A60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="61" s="2" spans="1:10">
-      <c r="A61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I61" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="62" s="2" spans="1:10">
-      <c r="A62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row customHeight="1" ht="13.75" r="1" s="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.75" r="2" s="1" spans="1:10">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.75" r="3" s="1" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.75" r="4" s="1" spans="1:10">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.75" r="5" s="1" spans="1:10">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.75" r="6" s="1" spans="1:10">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.75" r="7" s="1" spans="1:10">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="8" s="1" spans="1:10">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="9" s="1" spans="1:10">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="10" s="1" spans="1:10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="11" s="1" spans="1:10">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="12" s="1" spans="1:10">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="13" s="1" spans="1:10">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="14" s="1" spans="1:10">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="15" s="1" spans="1:10">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="16" s="1" spans="1:10">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="17" s="1" spans="1:10">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="18" s="1" spans="1:10">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="19" s="1" spans="1:10">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="20" s="1" spans="1:10">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="21" s="1" spans="1:10">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="22" s="1" spans="1:10">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="23" s="1" spans="1:10">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="24" s="1" spans="1:10">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="25" s="1" spans="1:10">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="26" s="1" spans="1:10">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="27" s="1" spans="1:10">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="28" s="1" spans="1:10">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="29" s="1" spans="1:10">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="30" s="1" spans="1:10">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="31" s="1" spans="1:10">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="32" s="1" spans="1:10">
+      <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="33" s="1" spans="1:10">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="34" s="1" spans="1:10">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="35" s="1" spans="1:10">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="36" s="1" spans="1:10">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="37" s="1" spans="1:10">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="38" s="1" spans="1:10">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="39" s="1" spans="1:10">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="40" s="1" spans="1:10">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="41" s="1" spans="1:10">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="42" s="1" spans="1:10">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="43" s="1" spans="1:10">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="44" s="1" spans="1:10">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="45" s="1" spans="1:10">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="46" s="1" spans="1:10">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="47" s="1" spans="1:10">
+      <c r="A47" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="48" s="1" spans="1:10">
+      <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="49" s="1" spans="1:10">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>8</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="50" s="1" spans="1:10">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="51" s="1" spans="1:10">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="52" s="1" spans="1:10">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="53" s="1" spans="1:10">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="54" s="1" spans="1:10">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="55" s="1" spans="1:10">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="56" s="1" spans="1:10">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+      <c r="I56" t="n">
+        <v>8</v>
+      </c>
+      <c r="J56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="57" s="1" spans="1:10">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="58" s="1" spans="1:10">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="59" s="1" spans="1:10">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="60" s="1" spans="1:10">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="61" s="1" spans="1:10">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="62" s="1" spans="1:10">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4715,10 +4686,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.025" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.025"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C工作表1</oddHeader>
     <oddFooter>&amp;C页 &amp;P</oddFooter>
     <evenHeader/>
